--- a/outputs/2_dists_by_taxcode_proc_mchenry.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_mchenry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="864">
   <si>
     <t xml:space="preserve">tax_code</t>
   </si>
@@ -2131,7 +2131,7 @@
     <t xml:space="preserve">BARRINGTON HILLS</t>
   </si>
   <si>
-    <t xml:space="preserve">BARRINGTON-COUNTRYSIDE PKD</t>
+    <t xml:space="preserve">BARRINGTON HILLS PKD</t>
   </si>
   <si>
     <t xml:space="preserve">U 220</t>
@@ -2152,7 +2152,7 @@
     <t xml:space="preserve">19025</t>
   </si>
   <si>
-    <t xml:space="preserve">FOX RIVER GROVE FIRE</t>
+    <t xml:space="preserve">FOX RIVER GROVE FPD</t>
   </si>
   <si>
     <t xml:space="preserve">19026</t>
@@ -2503,13 +2503,13 @@
     <t xml:space="preserve">20100</t>
   </si>
   <si>
-    <t xml:space="preserve">FOX RIVER GROVE ST SSA</t>
+    <t xml:space="preserve">FOX RIVER GROVE GARDNER TERRACE SSA</t>
   </si>
   <si>
     <t xml:space="preserve">20120</t>
   </si>
   <si>
-    <t xml:space="preserve">FOX RIVER GROVE PG SSA</t>
+    <t xml:space="preserve">FOX RIVER GROVE PICNIC GROVE SSA</t>
   </si>
   <si>
     <t xml:space="preserve">20142</t>
@@ -2566,7 +2566,7 @@
     <t xml:space="preserve">E 15; E 165; E 18; E 2; E 26; E 3; E 36; E 46; E 47</t>
   </si>
   <si>
-    <t xml:space="preserve">ALGONQUIN FPD; BARRINGTON-COUNTRYSIDE FPD; CARY FPD; CRYSTAL LAKE RURAL FPD; FOX LAKE FPD; HARVARD COMM FPD; HEBRON-ALDEN-GREENWOOD FPD; HUNTLEY FPD; MARENGO FPD; MCHENRY FPD; NUNDA RURAL FPD; RICHMOND FPD; SPRING GROVE FPD; UNION FPD; WAUCONDA FPD; WONDER LAKE FPD; WOODSTOCK FIRE/RESCUE DIST</t>
+    <t xml:space="preserve">ALGONQUIN FPD; BARRINGTON-COUNTRYSIDE FPD; CARY FPD; CRYSTAL LAKE RURAL FPD; FOX LAKE FPD; FOX RIVER GROVE FPD; HARVARD COMM FPD; HEBRON-ALDEN-GREENWOOD FPD; HUNTLEY FPD; MARENGO FPD; MCHENRY FPD; NUNDA RURAL FPD; RICHMOND FPD; SPRING GROVE FPD; UNION FPD; WAUCONDA FPD; WONDER LAKE FPD; WOODSTOCK FIRE/RESCUE DIST</t>
   </si>
   <si>
     <t xml:space="preserve">H 154; H 155; H 156; H 157</t>
@@ -2575,16 +2575,13 @@
     <t xml:space="preserve">ALGONQUIN AREA LBRY DIST; BARRINGTON LBRY DIST; CARY PUB LBRY DIST; FOX LAKE LBRY DIST; FOX RIVER GROVE LBRY DIST; HUNTLEY LBRY DIST; JOHNSBURG LBRY DIST; MARENGO LBRY DIST; MCHENRY PUBLIC LBRY DIST; NIPPERSINK LBRY DIST; RIVER EAST PUBLIC LBRY DIST; RURAL WOODSTOCK LBRY DIST; WAUCONDA AREA LBRY DIST</t>
   </si>
   <si>
-    <t xml:space="preserve">CITY OF CRYSTAL LAKE FIRE; FOX RIVER GROVE FIRE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALGONQUIN; BARRINGTON HILLS; BULL VALLEY; CARY; CRYSTAL LAKE; FOX LAKE; FOX RIVER GROVE; GREENWOOD; HARVARD; HEBRON; HOLIDAY HILLS; HUNTLEY; ISLAND LAKE; JOHNSBURG; LAKE IN THE HILLS; LAKEMOOR; LAKEWOOD; MARENGO; MCCULLOM LAKE; MCHENRY; OAKWOOD HILLS; PORT BARRINGTON; PRAIRIE GROVE; RICHMOND; RINGWOOD; SPRING GROVE; TROUT VALLEY; UNION; WONDER LAKE; WOODSTOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">BARRINGTON-COUNTRYSIDE PKD; CARY PKD; CRYSTAL LAKE PKD; HUNTLEY PKD; MARENGO PKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALGONQUIN SSA 1; ALGONQUIN SSA2; BULL VALLEY SSA 1; CARY SSA 1; CARY SSA 2; CRYSTAL LAKE SSA 43; CRYSTAL LAKE SSA 44; CRYSTAL LAKE SSA 45; CRYSTAL LAKE SSA 46; CRYSTAL LAKE SSA 47; FOX RIVER GROVE PG SSA; FOX RIVER GROVE ST SSA; GREENWOOD SSA 1; HARVARD SSA 2; HARVARD SSA 3; HARVARD SSA 4; HARVARD SSA 5; HEBRON SSA 1; HEBRON SSA 2; HEBRON SSA 3; HEBRON SSA 4; HUNTLEY SSA 10; HUNTLEY SSA 11; HUNTLEY SSA 12; HUNTLEY SSA 13; HUNTLEY SSA 14; HUNTLEY SSA 15; HUNTLEY SSA 16; HUNTLEY SSA 5; HUNTLEY SSA 8; HUNTLEY SSA 9; ISLAND LAKE SSA 1; JOHNSBURG SSA 10; JOHNSBURG SSA 11; JOHNSBURG SSA 12; JOHNSBURG SSA 13; JOHNSBURG SSA 14; JOHNSBURG SSA 15; JOHNSBURG SSA 16; JOHNSBURG SSA 18; JOHNSBURG SSA 19; JOHNSBURG SSA 20; JOHNSBURG SSA 21; JOHNSBURG SSA 22; JOHNSBURG SSA 24; JOHNSBURG SSA 26; JOHNSBURG SSA 27; JOHNSBURG SSA 28; JOHNSBURG SSA 29; JOHNSBURG SSA 32; JOHNSBURG SSA 5; JOHNSBURG SSA 6; JOHNSBURG SSA 7; JOHNSBURG SSA 9; LAKEMOOR SSA 1; LAKEWOOD SSA 1; LAKEWOOD SSA 2; LAKEWOOD SSA 3; LAKEWOOD SSA 4; LAKEWOOD SSA 5; LAKEWOOD SSA 6; LAKEWOOD SSA 7; LITH SSA 1; LITH SSA 10; LITH SSA 11; LITH SSA 12; LITH SSA 13; LITH SSA 14; LITH SSA 15; LITH SSA 17; LITH SSA 18; LITH SSA 19; LITH SSA 2; LITH SSA 20; LITH SSA 21; LITH SSA 22; LITH SSA 23; LITH SSA 24; LITH SSA 3; LITH SSA 4A; LITH SSA 4B; LITH SSA 5; LITH SSA 6; LITH SSA 7; LITH SSA 8B; LITH SSA 8C; LITH SSA 9; MARENGO SSA 2; MARENGO SSA 3; MARENGO SSA 4; MARENGO SSA 5; MARENGO SSA 6; MARENGO SSA 7; MCHENRY SSA 10; MCHENRY SSA 11; MCHENRY SSA 2; MCHENRY SSA 3; MCHENRY SSA 4A; MCHENRY SSA 8; MCHENRY SSA 9; PORT BARRINGTON SSA 3; PORT BARRINGTON SSA 4; RICHMOND SSA 1; RICHMOND SSA 2; SPRING GROVE SSA 1; SPRING GROVE SSA 11; SPRING GROVE SSA 13; SPRING GROVE SSA 15; SPRING GROVE SSA 17; SPRING GROVE SSA 19; SPRING GROVE SSA 2; SPRING GROVE SSA 20; SPRING GROVE SSA 24; SPRING GROVE SSA 26; SPRING GROVE SSA 28; SPRING GROVE SSA 3; SPRING GROVE SSA 4; SPRING GROVE SSA 5; SPRING GROVE SSA 6; SPRING GROVE SSA 7; SPRING GROVE SSA 9; UNION SSA 1; WONDER LAKE SSA 1; WONDER LAKE SSA 2; WONDER LAKE SSA 3; WONDER LAKE SSA 4; WONDER LAKE SSA 5; WONDER LAKE SSA 7; WONDER LAKE SSA 9; WOODSTOCK SSA 10; WOODSTOCK SSA 11; WOODSTOCK SSA 12; WOODSTOCK SSA 13; WOODSTOCK SSA 14; WOODSTOCK SSA 16; WOODSTOCK SSA 8; WOODSTOCK SSA 9</t>
+    <t xml:space="preserve">BARRINGTON HILLS PKD; CARY PKD; CRYSTAL LAKE PKD; HUNTLEY PKD; MARENGO PKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGONQUIN SSA 1; ALGONQUIN SSA2; BULL VALLEY SSA 1; CARY SSA 1; CARY SSA 2; CRYSTAL LAKE SSA 43; CRYSTAL LAKE SSA 44; CRYSTAL LAKE SSA 45; CRYSTAL LAKE SSA 46; CRYSTAL LAKE SSA 47; FOX RIVER GROVE GARDNER TERRACE SSA; FOX RIVER GROVE PICNIC GROVE SSA; GREENWOOD SSA 1; HARVARD SSA 2; HARVARD SSA 3; HARVARD SSA 4; HARVARD SSA 5; HEBRON SSA 1; HEBRON SSA 2; HEBRON SSA 3; HEBRON SSA 4; HUNTLEY SSA 10; HUNTLEY SSA 11; HUNTLEY SSA 12; HUNTLEY SSA 13; HUNTLEY SSA 14; HUNTLEY SSA 15; HUNTLEY SSA 16; HUNTLEY SSA 5; HUNTLEY SSA 8; HUNTLEY SSA 9; ISLAND LAKE SSA 1; JOHNSBURG SSA 10; JOHNSBURG SSA 11; JOHNSBURG SSA 12; JOHNSBURG SSA 13; JOHNSBURG SSA 14; JOHNSBURG SSA 15; JOHNSBURG SSA 16; JOHNSBURG SSA 18; JOHNSBURG SSA 19; JOHNSBURG SSA 20; JOHNSBURG SSA 21; JOHNSBURG SSA 22; JOHNSBURG SSA 24; JOHNSBURG SSA 26; JOHNSBURG SSA 27; JOHNSBURG SSA 28; JOHNSBURG SSA 29; JOHNSBURG SSA 32; JOHNSBURG SSA 5; JOHNSBURG SSA 6; JOHNSBURG SSA 7; JOHNSBURG SSA 9; LAKEMOOR SSA 1; LAKEWOOD SSA 1; LAKEWOOD SSA 2; LAKEWOOD SSA 3; LAKEWOOD SSA 4; LAKEWOOD SSA 5; LAKEWOOD SSA 6; LAKEWOOD SSA 7; LITH SSA 1; LITH SSA 10; LITH SSA 11; LITH SSA 12; LITH SSA 13; LITH SSA 14; LITH SSA 15; LITH SSA 17; LITH SSA 18; LITH SSA 19; LITH SSA 2; LITH SSA 20; LITH SSA 21; LITH SSA 22; LITH SSA 23; LITH SSA 24; LITH SSA 3; LITH SSA 4A; LITH SSA 4B; LITH SSA 5; LITH SSA 6; LITH SSA 7; LITH SSA 8B; LITH SSA 8C; LITH SSA 9; MARENGO SSA 2; MARENGO SSA 3; MARENGO SSA 4; MARENGO SSA 5; MARENGO SSA 6; MARENGO SSA 7; MCHENRY SSA 10; MCHENRY SSA 11; MCHENRY SSA 2; MCHENRY SSA 3; MCHENRY SSA 4A; MCHENRY SSA 8; MCHENRY SSA 9; PORT BARRINGTON SSA 3; PORT BARRINGTON SSA 4; RICHMOND SSA 1; RICHMOND SSA 2; SPRING GROVE SSA 1; SPRING GROVE SSA 11; SPRING GROVE SSA 13; SPRING GROVE SSA 15; SPRING GROVE SSA 17; SPRING GROVE SSA 19; SPRING GROVE SSA 2; SPRING GROVE SSA 20; SPRING GROVE SSA 24; SPRING GROVE SSA 26; SPRING GROVE SSA 28; SPRING GROVE SSA 3; SPRING GROVE SSA 4; SPRING GROVE SSA 5; SPRING GROVE SSA 6; SPRING GROVE SSA 7; SPRING GROVE SSA 9; UNION SSA 1; WONDER LAKE SSA 1; WONDER LAKE SSA 2; WONDER LAKE SSA 3; WONDER LAKE SSA 4; WONDER LAKE SSA 5; WONDER LAKE SSA 7; WONDER LAKE SSA 9; WOODSTOCK SSA 10; WOODSTOCK SSA 11; WOODSTOCK SSA 12; WOODSTOCK SSA 13; WOODSTOCK SSA 14; WOODSTOCK SSA 16; WOODSTOCK SSA 8; WOODSTOCK SSA 9</t>
   </si>
   <si>
     <t xml:space="preserve">HUNTLEY SSA 6; HUNTLEY SSA 7; HUNTLEY SSA 8; JOHNSBURG SSA 21; JOHNSBURG SSA 31; JOHNSBURG SSA30; LAKEWOOD SSA 8; LITH SSA 27; LITH SSA 30; SPRING GROVE SSA 10; SPRING GROVE SSA 12; SPRING GROVE SSA 14; SPRING GROVE SSA 16; SPRING GROVE SSA 18; SPRING GROVE SSA 21; SPRING GROVE SSA 25; SPRING GROVE SSA 27; SPRING GROVE SSA 29; SPRING GROVE SSA 8; WONDER LAKE SSA 9</t>
@@ -22604,7 +22601,9 @@
         <v>25</v>
       </c>
       <c r="E415"/>
-      <c r="F415"/>
+      <c r="F415" t="s">
+        <v>712</v>
+      </c>
       <c r="G415" t="s">
         <v>27</v>
       </c>
@@ -22612,9 +22611,7 @@
       <c r="I415" t="s">
         <v>703</v>
       </c>
-      <c r="J415" t="s">
-        <v>712</v>
-      </c>
+      <c r="J415"/>
       <c r="K415"/>
       <c r="L415" t="s">
         <v>704</v>
@@ -22743,15 +22740,15 @@
         <v>25</v>
       </c>
       <c r="E418"/>
-      <c r="F418"/>
+      <c r="F418" t="s">
+        <v>712</v>
+      </c>
       <c r="G418" t="s">
         <v>27</v>
       </c>
       <c r="H418"/>
       <c r="I418"/>
-      <c r="J418" t="s">
-        <v>712</v>
-      </c>
+      <c r="J418"/>
       <c r="K418"/>
       <c r="L418"/>
       <c r="M418"/>
@@ -22870,7 +22867,9 @@
         <v>25</v>
       </c>
       <c r="E421"/>
-      <c r="F421"/>
+      <c r="F421" t="s">
+        <v>712</v>
+      </c>
       <c r="G421" t="s">
         <v>27</v>
       </c>
@@ -22878,9 +22877,7 @@
       <c r="I421" t="s">
         <v>574</v>
       </c>
-      <c r="J421" t="s">
-        <v>712</v>
-      </c>
+      <c r="J421"/>
       <c r="K421"/>
       <c r="L421"/>
       <c r="M421"/>
@@ -25550,7 +25547,9 @@
         <v>25</v>
       </c>
       <c r="E477"/>
-      <c r="F477"/>
+      <c r="F477" t="s">
+        <v>712</v>
+      </c>
       <c r="G477" t="s">
         <v>27</v>
       </c>
@@ -25558,9 +25557,7 @@
       <c r="I477" t="s">
         <v>574</v>
       </c>
-      <c r="J477" t="s">
-        <v>712</v>
-      </c>
+      <c r="J477"/>
       <c r="K477"/>
       <c r="L477" t="s">
         <v>704</v>
@@ -26181,7 +26178,9 @@
       <c r="E490" t="s">
         <v>807</v>
       </c>
-      <c r="F490"/>
+      <c r="F490" t="s">
+        <v>712</v>
+      </c>
       <c r="G490" t="s">
         <v>27</v>
       </c>
@@ -26191,9 +26190,7 @@
       <c r="I490" t="s">
         <v>808</v>
       </c>
-      <c r="J490" t="s">
-        <v>712</v>
-      </c>
+      <c r="J490"/>
       <c r="K490"/>
       <c r="L490" t="s">
         <v>809</v>
@@ -26275,7 +26272,9 @@
       <c r="E492" t="s">
         <v>807</v>
       </c>
-      <c r="F492"/>
+      <c r="F492" t="s">
+        <v>712</v>
+      </c>
       <c r="G492" t="s">
         <v>27</v>
       </c>
@@ -26285,9 +26284,7 @@
       <c r="I492" t="s">
         <v>703</v>
       </c>
-      <c r="J492" t="s">
-        <v>712</v>
-      </c>
+      <c r="J492"/>
       <c r="K492"/>
       <c r="L492"/>
       <c r="M492"/>
@@ -26318,7 +26315,9 @@
         <v>25</v>
       </c>
       <c r="E493"/>
-      <c r="F493"/>
+      <c r="F493" t="s">
+        <v>712</v>
+      </c>
       <c r="G493" t="s">
         <v>27</v>
       </c>
@@ -26326,9 +26325,7 @@
       <c r="I493" t="s">
         <v>703</v>
       </c>
-      <c r="J493" t="s">
-        <v>712</v>
-      </c>
+      <c r="J493"/>
       <c r="K493"/>
       <c r="L493"/>
       <c r="M493"/>
@@ -26361,7 +26358,9 @@
         <v>25</v>
       </c>
       <c r="E494"/>
-      <c r="F494"/>
+      <c r="F494" t="s">
+        <v>712</v>
+      </c>
       <c r="G494" t="s">
         <v>27</v>
       </c>
@@ -26369,9 +26368,7 @@
       <c r="I494" t="s">
         <v>703</v>
       </c>
-      <c r="J494" t="s">
-        <v>712</v>
-      </c>
+      <c r="J494"/>
       <c r="K494"/>
       <c r="L494" t="s">
         <v>704</v>
@@ -26408,7 +26405,9 @@
         <v>25</v>
       </c>
       <c r="E495"/>
-      <c r="F495"/>
+      <c r="F495" t="s">
+        <v>712</v>
+      </c>
       <c r="G495" t="s">
         <v>27</v>
       </c>
@@ -26416,9 +26415,7 @@
       <c r="I495" t="s">
         <v>703</v>
       </c>
-      <c r="J495" t="s">
-        <v>712</v>
-      </c>
+      <c r="J495"/>
       <c r="K495"/>
       <c r="L495" t="s">
         <v>704</v>
@@ -26455,7 +26452,9 @@
         <v>25</v>
       </c>
       <c r="E496"/>
-      <c r="F496"/>
+      <c r="F496" t="s">
+        <v>712</v>
+      </c>
       <c r="G496" t="s">
         <v>27</v>
       </c>
@@ -26463,9 +26462,7 @@
       <c r="I496" t="s">
         <v>703</v>
       </c>
-      <c r="J496" t="s">
-        <v>712</v>
-      </c>
+      <c r="J496"/>
       <c r="K496"/>
       <c r="L496" t="s">
         <v>809</v>
@@ -26545,7 +26542,9 @@
         <v>25</v>
       </c>
       <c r="E498"/>
-      <c r="F498"/>
+      <c r="F498" t="s">
+        <v>712</v>
+      </c>
       <c r="G498" t="s">
         <v>27</v>
       </c>
@@ -26553,9 +26552,7 @@
       <c r="I498" t="s">
         <v>703</v>
       </c>
-      <c r="J498" t="s">
-        <v>712</v>
-      </c>
+      <c r="J498"/>
       <c r="K498"/>
       <c r="L498" t="s">
         <v>809</v>
@@ -26639,7 +26636,9 @@
       <c r="E500" t="s">
         <v>807</v>
       </c>
-      <c r="F500"/>
+      <c r="F500" t="s">
+        <v>712</v>
+      </c>
       <c r="G500" t="s">
         <v>27</v>
       </c>
@@ -26649,9 +26648,7 @@
       <c r="I500" t="s">
         <v>808</v>
       </c>
-      <c r="J500" t="s">
-        <v>712</v>
-      </c>
+      <c r="J500"/>
       <c r="K500"/>
       <c r="L500" t="s">
         <v>809</v>
@@ -26729,7 +26726,9 @@
       <c r="E502" t="s">
         <v>807</v>
       </c>
-      <c r="F502"/>
+      <c r="F502" t="s">
+        <v>712</v>
+      </c>
       <c r="G502" t="s">
         <v>27</v>
       </c>
@@ -26739,9 +26738,7 @@
       <c r="I502" t="s">
         <v>703</v>
       </c>
-      <c r="J502" t="s">
-        <v>712</v>
-      </c>
+      <c r="J502"/>
       <c r="K502"/>
       <c r="L502"/>
       <c r="M502" t="s">
@@ -26774,7 +26771,9 @@
         <v>25</v>
       </c>
       <c r="E503"/>
-      <c r="F503"/>
+      <c r="F503" t="s">
+        <v>712</v>
+      </c>
       <c r="G503" t="s">
         <v>27</v>
       </c>
@@ -26782,9 +26781,7 @@
       <c r="I503" t="s">
         <v>703</v>
       </c>
-      <c r="J503" t="s">
-        <v>712</v>
-      </c>
+      <c r="J503"/>
       <c r="K503"/>
       <c r="L503" t="s">
         <v>704</v>
@@ -26866,7 +26863,9 @@
         <v>25</v>
       </c>
       <c r="E505"/>
-      <c r="F505"/>
+      <c r="F505" t="s">
+        <v>712</v>
+      </c>
       <c r="G505" t="s">
         <v>27</v>
       </c>
@@ -26874,9 +26873,7 @@
       <c r="I505" t="s">
         <v>703</v>
       </c>
-      <c r="J505" t="s">
-        <v>712</v>
-      </c>
+      <c r="J505"/>
       <c r="K505"/>
       <c r="L505" t="s">
         <v>704</v>
@@ -26913,7 +26910,9 @@
         <v>25</v>
       </c>
       <c r="E506"/>
-      <c r="F506"/>
+      <c r="F506" t="s">
+        <v>712</v>
+      </c>
       <c r="G506" t="s">
         <v>27</v>
       </c>
@@ -26921,9 +26920,7 @@
       <c r="I506" t="s">
         <v>703</v>
       </c>
-      <c r="J506" t="s">
-        <v>712</v>
-      </c>
+      <c r="J506"/>
       <c r="K506"/>
       <c r="L506"/>
       <c r="M506" t="s">
@@ -27005,7 +27002,9 @@
       <c r="E508" t="s">
         <v>807</v>
       </c>
-      <c r="F508"/>
+      <c r="F508" t="s">
+        <v>712</v>
+      </c>
       <c r="G508" t="s">
         <v>27</v>
       </c>
@@ -27015,9 +27014,7 @@
       <c r="I508" t="s">
         <v>703</v>
       </c>
-      <c r="J508" t="s">
-        <v>712</v>
-      </c>
+      <c r="J508"/>
       <c r="K508"/>
       <c r="L508" t="s">
         <v>809</v>
@@ -27050,7 +27047,9 @@
         <v>25</v>
       </c>
       <c r="E509"/>
-      <c r="F509"/>
+      <c r="F509" t="s">
+        <v>712</v>
+      </c>
       <c r="G509" t="s">
         <v>27</v>
       </c>
@@ -27058,9 +27057,7 @@
       <c r="I509" t="s">
         <v>703</v>
       </c>
-      <c r="J509" t="s">
-        <v>712</v>
-      </c>
+      <c r="J509"/>
       <c r="K509"/>
       <c r="L509" t="s">
         <v>809</v>
@@ -27099,7 +27096,9 @@
       <c r="E510" t="s">
         <v>807</v>
       </c>
-      <c r="F510"/>
+      <c r="F510" t="s">
+        <v>712</v>
+      </c>
       <c r="G510" t="s">
         <v>27</v>
       </c>
@@ -27109,9 +27108,7 @@
       <c r="I510" t="s">
         <v>808</v>
       </c>
-      <c r="J510" t="s">
-        <v>712</v>
-      </c>
+      <c r="J510"/>
       <c r="K510"/>
       <c r="L510" t="s">
         <v>809</v>
@@ -27197,7 +27194,9 @@
         <v>25</v>
       </c>
       <c r="E512"/>
-      <c r="F512"/>
+      <c r="F512" t="s">
+        <v>712</v>
+      </c>
       <c r="G512" t="s">
         <v>27</v>
       </c>
@@ -27205,9 +27204,7 @@
       <c r="I512" t="s">
         <v>703</v>
       </c>
-      <c r="J512" t="s">
-        <v>712</v>
-      </c>
+      <c r="J512"/>
       <c r="K512"/>
       <c r="L512"/>
       <c r="M512" t="s">
@@ -27393,7 +27390,9 @@
       <c r="E516" t="s">
         <v>807</v>
       </c>
-      <c r="F516"/>
+      <c r="F516" t="s">
+        <v>712</v>
+      </c>
       <c r="G516" t="s">
         <v>27</v>
       </c>
@@ -27403,9 +27402,7 @@
       <c r="I516" t="s">
         <v>808</v>
       </c>
-      <c r="J516" t="s">
-        <v>712</v>
-      </c>
+      <c r="J516"/>
       <c r="K516"/>
       <c r="L516" t="s">
         <v>809</v>
@@ -27442,7 +27439,9 @@
       <c r="E517" t="s">
         <v>807</v>
       </c>
-      <c r="F517"/>
+      <c r="F517" t="s">
+        <v>712</v>
+      </c>
       <c r="G517" t="s">
         <v>27</v>
       </c>
@@ -27452,9 +27451,7 @@
       <c r="I517" t="s">
         <v>808</v>
       </c>
-      <c r="J517" t="s">
-        <v>712</v>
-      </c>
+      <c r="J517"/>
       <c r="K517"/>
       <c r="L517" t="s">
         <v>809</v>
@@ -27491,7 +27488,9 @@
       <c r="E518" t="s">
         <v>807</v>
       </c>
-      <c r="F518"/>
+      <c r="F518" t="s">
+        <v>712</v>
+      </c>
       <c r="G518" t="s">
         <v>27</v>
       </c>
@@ -27501,9 +27500,7 @@
       <c r="I518" t="s">
         <v>808</v>
       </c>
-      <c r="J518" t="s">
-        <v>712</v>
-      </c>
+      <c r="J518"/>
       <c r="K518"/>
       <c r="L518" t="s">
         <v>809</v>
@@ -27625,7 +27622,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>853</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
@@ -27641,7 +27638,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14">
@@ -27649,7 +27646,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15">
@@ -27673,7 +27670,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18">
@@ -27681,7 +27678,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19">
@@ -27697,7 +27694,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21">
@@ -27705,7 +27702,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="22">
@@ -27713,7 +27710,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="23">
@@ -27721,7 +27718,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="24">
@@ -27748,13 +27745,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1" t="s">
         <v>862</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>863</v>
-      </c>
-      <c r="C1" t="s">
-        <v>864</v>
       </c>
     </row>
   </sheetData>
